--- a/NRI_STLF_Data/WeatherData/T_semnan/T_semnan95.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_semnan/T_semnan95.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NRST\WeatherData\T_semnan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.6.13\WeatherData\T_semnan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
   <si>
     <t>Rain</t>
   </si>
@@ -260,12 +260,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -599,13 +599,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="F157" sqref="F157:AA160"/>
+    <sheetView tabSelected="1" topLeftCell="B162" workbookViewId="0">
+      <selection activeCell="G175" sqref="G175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>95</v>
       </c>
@@ -682,7 +682,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>95</v>
       </c>
@@ -762,7 +762,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>95</v>
       </c>
@@ -842,7 +842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>95</v>
       </c>
@@ -919,7 +919,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>95</v>
       </c>
@@ -996,7 +996,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>95</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>95</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>95</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>95</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>95</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>95</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>95</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>95</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>95</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>95</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>95</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>95</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>95</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>95</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>95</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>95</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>95</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>95</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>95</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>95</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>95</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>95</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>95</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>95</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>95</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>95</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>95</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>95</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>95</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>95</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>95</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>95</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>95</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>95</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>95</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>95</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>95</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>95</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>95</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>95</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>95</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>95</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>95</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>95</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>95</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>95</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>95</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>95</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>95</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>95</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>95</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>95</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>95</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>95</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>95</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>95</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>95</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>95</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>95</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>95</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>95</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>95</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>95</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>95</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>95</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>95</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>95</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>95</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>95</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>95</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>95</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>95</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>95</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>95</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>95</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>95</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>95</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>95</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>95</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>95</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>95</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>95</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>95</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>95</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>95</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>95</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>95</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>95</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>95</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>95</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>95</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>95</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>95</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>95</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>95</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>95</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>95</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>95</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>95</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>95</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>95</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>95</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>95</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>95</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>95</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>95</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>95</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>95</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>95</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>95</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>95</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>95</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>95</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>95</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>95</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>95</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>95</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>95</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>95</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>95</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>95</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>95</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>95</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>95</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>95</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>95</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>95</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>95</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>95</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>95</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>95</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>95</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>95</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>95</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>95</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>95</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>95</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>95</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>95</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>95</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>95</v>
       </c>
@@ -11951,7 +11951,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>95</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>95</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>95</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>95</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>95</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>95</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>95</v>
       </c>
@@ -12484,7 +12484,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>95</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>95</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>95</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>95</v>
       </c>
@@ -12789,7 +12789,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>95</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>95</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>95</v>
       </c>
@@ -12956,8 +12956,68 @@
       <c r="E161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161">
+        <v>37</v>
+      </c>
+      <c r="G161">
+        <v>30</v>
+      </c>
+      <c r="H161">
+        <v>22</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161">
+        <v>-1</v>
+      </c>
+      <c r="K161">
+        <v>-5</v>
+      </c>
+      <c r="L161">
+        <v>18</v>
+      </c>
+      <c r="M161">
+        <v>10</v>
+      </c>
+      <c r="N161">
+        <v>5</v>
+      </c>
+      <c r="O161">
+        <v>1019</v>
+      </c>
+      <c r="P161">
+        <v>1014</v>
+      </c>
+      <c r="Q161">
+        <v>1007</v>
+      </c>
+      <c r="R161">
+        <v>14</v>
+      </c>
+      <c r="S161">
+        <v>14</v>
+      </c>
+      <c r="T161">
+        <v>10</v>
+      </c>
+      <c r="U161">
+        <v>26</v>
+      </c>
+      <c r="V161">
+        <v>8</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>1</v>
+      </c>
+      <c r="AA161">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>95</v>
       </c>
@@ -12973,8 +13033,68 @@
       <c r="E162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162">
+        <v>36</v>
+      </c>
+      <c r="G162">
+        <v>30</v>
+      </c>
+      <c r="H162">
+        <v>24</v>
+      </c>
+      <c r="I162">
+        <v>6</v>
+      </c>
+      <c r="J162">
+        <v>2</v>
+      </c>
+      <c r="K162">
+        <v>-1</v>
+      </c>
+      <c r="L162">
+        <v>20</v>
+      </c>
+      <c r="M162">
+        <v>13</v>
+      </c>
+      <c r="N162">
+        <v>5</v>
+      </c>
+      <c r="O162">
+        <v>1019</v>
+      </c>
+      <c r="P162">
+        <v>1014</v>
+      </c>
+      <c r="Q162">
+        <v>1007</v>
+      </c>
+      <c r="R162">
+        <v>14</v>
+      </c>
+      <c r="S162">
+        <v>12</v>
+      </c>
+      <c r="T162">
+        <v>10</v>
+      </c>
+      <c r="U162">
+        <v>26</v>
+      </c>
+      <c r="V162">
+        <v>8</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <v>1</v>
+      </c>
+      <c r="AA162">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>95</v>
       </c>
@@ -12990,8 +13110,68 @@
       <c r="E163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163">
+        <v>36</v>
+      </c>
+      <c r="G163">
+        <v>30</v>
+      </c>
+      <c r="H163">
+        <v>24</v>
+      </c>
+      <c r="I163">
+        <v>6</v>
+      </c>
+      <c r="J163">
+        <v>3</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>26</v>
+      </c>
+      <c r="M163">
+        <v>15</v>
+      </c>
+      <c r="N163">
+        <v>6</v>
+      </c>
+      <c r="O163">
+        <v>1018</v>
+      </c>
+      <c r="P163">
+        <v>1014</v>
+      </c>
+      <c r="Q163">
+        <v>1007</v>
+      </c>
+      <c r="R163">
+        <v>11</v>
+      </c>
+      <c r="S163">
+        <v>10</v>
+      </c>
+      <c r="T163">
+        <v>10</v>
+      </c>
+      <c r="U163">
+        <v>8</v>
+      </c>
+      <c r="V163">
+        <v>3</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>2</v>
+      </c>
+      <c r="AA163">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>95</v>
       </c>
@@ -13007,8 +13187,68 @@
       <c r="E164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164">
+        <v>36</v>
+      </c>
+      <c r="G164">
+        <v>29</v>
+      </c>
+      <c r="H164">
+        <v>22</v>
+      </c>
+      <c r="I164">
+        <v>4</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>-2</v>
+      </c>
+      <c r="L164">
+        <v>29</v>
+      </c>
+      <c r="M164">
+        <v>13</v>
+      </c>
+      <c r="N164">
+        <v>5</v>
+      </c>
+      <c r="O164">
+        <v>1017</v>
+      </c>
+      <c r="P164">
+        <v>1013</v>
+      </c>
+      <c r="Q164">
+        <v>1005</v>
+      </c>
+      <c r="R164">
+        <v>14</v>
+      </c>
+      <c r="S164">
+        <v>12</v>
+      </c>
+      <c r="T164">
+        <v>10</v>
+      </c>
+      <c r="U164">
+        <v>18</v>
+      </c>
+      <c r="V164">
+        <v>6</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>2</v>
+      </c>
+      <c r="AA164">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>95</v>
       </c>
@@ -13024,8 +13264,68 @@
       <c r="E165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165">
+        <v>35</v>
+      </c>
+      <c r="G165">
+        <v>28</v>
+      </c>
+      <c r="H165">
+        <v>22</v>
+      </c>
+      <c r="I165">
+        <v>9</v>
+      </c>
+      <c r="J165">
+        <v>5</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>34</v>
+      </c>
+      <c r="M165">
+        <v>19</v>
+      </c>
+      <c r="N165">
+        <v>9</v>
+      </c>
+      <c r="O165">
+        <v>1019</v>
+      </c>
+      <c r="P165">
+        <v>1012</v>
+      </c>
+      <c r="Q165">
+        <v>1004</v>
+      </c>
+      <c r="R165">
+        <v>14</v>
+      </c>
+      <c r="S165">
+        <v>11</v>
+      </c>
+      <c r="T165">
+        <v>10</v>
+      </c>
+      <c r="U165">
+        <v>8</v>
+      </c>
+      <c r="V165">
+        <v>3</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>2</v>
+      </c>
+      <c r="AA165">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>95</v>
       </c>
@@ -13041,8 +13341,68 @@
       <c r="E166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166">
+        <v>36</v>
+      </c>
+      <c r="G166">
+        <v>29</v>
+      </c>
+      <c r="H166">
+        <v>23</v>
+      </c>
+      <c r="I166">
+        <v>6</v>
+      </c>
+      <c r="J166">
+        <v>2</v>
+      </c>
+      <c r="K166">
+        <v>-4</v>
+      </c>
+      <c r="L166">
+        <v>22</v>
+      </c>
+      <c r="M166">
+        <v>14</v>
+      </c>
+      <c r="N166">
+        <v>6</v>
+      </c>
+      <c r="O166">
+        <v>1019</v>
+      </c>
+      <c r="P166">
+        <v>1009</v>
+      </c>
+      <c r="Q166">
+        <v>1001</v>
+      </c>
+      <c r="R166">
+        <v>14</v>
+      </c>
+      <c r="S166">
+        <v>12</v>
+      </c>
+      <c r="T166">
+        <v>10</v>
+      </c>
+      <c r="U166">
+        <v>26</v>
+      </c>
+      <c r="V166">
+        <v>6</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>4</v>
+      </c>
+      <c r="AA166">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>95</v>
       </c>
@@ -13058,8 +13418,71 @@
       <c r="E167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167">
+        <v>36</v>
+      </c>
+      <c r="G167">
+        <v>31</v>
+      </c>
+      <c r="H167">
+        <v>26</v>
+      </c>
+      <c r="I167">
+        <v>9</v>
+      </c>
+      <c r="J167">
+        <v>6</v>
+      </c>
+      <c r="K167">
+        <v>3</v>
+      </c>
+      <c r="L167">
+        <v>28</v>
+      </c>
+      <c r="M167">
+        <v>18</v>
+      </c>
+      <c r="N167">
+        <v>8</v>
+      </c>
+      <c r="O167">
+        <v>1013</v>
+      </c>
+      <c r="P167">
+        <v>1009</v>
+      </c>
+      <c r="Q167">
+        <v>1001</v>
+      </c>
+      <c r="R167">
+        <v>14</v>
+      </c>
+      <c r="S167">
+        <v>11</v>
+      </c>
+      <c r="T167">
+        <v>10</v>
+      </c>
+      <c r="U167">
+        <v>23</v>
+      </c>
+      <c r="V167">
+        <v>8</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>3</v>
+      </c>
+      <c r="Z167" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA167">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>95</v>
       </c>
@@ -13075,8 +13498,17 @@
       <c r="E168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168">
+        <v>34</v>
+      </c>
+      <c r="G168">
+        <v>28</v>
+      </c>
+      <c r="H168">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>95</v>
       </c>
@@ -13092,8 +13524,17 @@
       <c r="E169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169">
+        <v>36</v>
+      </c>
+      <c r="G169">
+        <v>28</v>
+      </c>
+      <c r="H169">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>95</v>
       </c>
@@ -13109,8 +13550,17 @@
       <c r="E170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170">
+        <v>38</v>
+      </c>
+      <c r="G170">
+        <v>30</v>
+      </c>
+      <c r="H170">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>95</v>
       </c>
@@ -13126,8 +13576,17 @@
       <c r="E171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171">
+        <v>37</v>
+      </c>
+      <c r="G171">
+        <v>29</v>
+      </c>
+      <c r="H171">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>95</v>
       </c>
@@ -13143,8 +13602,17 @@
       <c r="E172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172">
+        <v>34</v>
+      </c>
+      <c r="G172">
+        <v>27</v>
+      </c>
+      <c r="H172">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>95</v>
       </c>
@@ -13160,8 +13628,17 @@
       <c r="E173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F173">
+        <v>31</v>
+      </c>
+      <c r="G173">
+        <v>25</v>
+      </c>
+      <c r="H173">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>95</v>
       </c>
@@ -13178,7 +13655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>95</v>
       </c>
@@ -13195,7 +13672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>95</v>
       </c>
@@ -13212,7 +13689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>95</v>
       </c>
@@ -13229,7 +13706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>95</v>
       </c>
@@ -13246,7 +13723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>95</v>
       </c>
@@ -13263,7 +13740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>95</v>
       </c>
@@ -13280,7 +13757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>95</v>
       </c>
@@ -13297,7 +13774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>95</v>
       </c>
@@ -13314,7 +13791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>95</v>
       </c>
@@ -13331,7 +13808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>95</v>
       </c>
@@ -13348,7 +13825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>95</v>
       </c>
@@ -13365,7 +13842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>95</v>
       </c>
@@ -13382,7 +13859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>95</v>
       </c>
@@ -13399,7 +13876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>95</v>
       </c>
@@ -13416,7 +13893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>95</v>
       </c>
@@ -13433,7 +13910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>95</v>
       </c>
@@ -13450,7 +13927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>95</v>
       </c>
@@ -13467,7 +13944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>95</v>
       </c>
@@ -13484,7 +13961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>95</v>
       </c>
@@ -13501,7 +13978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>95</v>
       </c>
@@ -13518,7 +13995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>95</v>
       </c>
@@ -13535,7 +14012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>95</v>
       </c>
@@ -13552,7 +14029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>95</v>
       </c>
@@ -13569,7 +14046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>95</v>
       </c>
@@ -13586,7 +14063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>95</v>
       </c>
@@ -13603,7 +14080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>95</v>
       </c>
@@ -13620,7 +14097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>95</v>
       </c>
@@ -13637,7 +14114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>95</v>
       </c>
@@ -13654,7 +14131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>95</v>
       </c>
@@ -13671,7 +14148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>95</v>
       </c>
@@ -13688,7 +14165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>95</v>
       </c>
@@ -13705,7 +14182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>95</v>
       </c>
@@ -13722,7 +14199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>95</v>
       </c>
@@ -13739,7 +14216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>95</v>
       </c>
@@ -13756,7 +14233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>95</v>
       </c>
@@ -13773,7 +14250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>95</v>
       </c>
@@ -13790,7 +14267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>95</v>
       </c>
@@ -13807,7 +14284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>95</v>
       </c>
@@ -13824,7 +14301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>95</v>
       </c>
@@ -13841,7 +14318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>95</v>
       </c>
@@ -13858,7 +14335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>95</v>
       </c>
@@ -13875,7 +14352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>95</v>
       </c>
@@ -13892,7 +14369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>95</v>
       </c>
@@ -13909,7 +14386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>95</v>
       </c>
@@ -13926,7 +14403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>95</v>
       </c>
@@ -13943,7 +14420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>95</v>
       </c>
@@ -13960,7 +14437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>95</v>
       </c>
@@ -13977,7 +14454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>95</v>
       </c>
@@ -13994,7 +14471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>95</v>
       </c>
@@ -14011,7 +14488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>95</v>
       </c>
@@ -14028,7 +14505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>95</v>
       </c>
@@ -14045,7 +14522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>95</v>
       </c>
@@ -14062,7 +14539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>95</v>
       </c>
@@ -14079,7 +14556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>95</v>
       </c>
@@ -14096,7 +14573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>95</v>
       </c>
@@ -14113,7 +14590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>95</v>
       </c>
@@ -14130,7 +14607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>95</v>
       </c>
@@ -14147,7 +14624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>95</v>
       </c>
@@ -14164,7 +14641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>95</v>
       </c>
@@ -14181,7 +14658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>95</v>
       </c>
@@ -14198,7 +14675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>95</v>
       </c>
@@ -14215,7 +14692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>95</v>
       </c>
@@ -14232,7 +14709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>95</v>
       </c>
@@ -14249,7 +14726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>95</v>
       </c>
@@ -14266,7 +14743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>95</v>
       </c>
@@ -14283,7 +14760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>95</v>
       </c>
@@ -14300,7 +14777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241">
         <v>95</v>
       </c>
@@ -14317,7 +14794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242">
         <v>95</v>
       </c>
@@ -14334,7 +14811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>95</v>
       </c>
@@ -14351,7 +14828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>95</v>
       </c>
@@ -14368,7 +14845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245">
         <v>95</v>
       </c>
@@ -14385,7 +14862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246">
         <v>95</v>
       </c>
@@ -14402,7 +14879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>95</v>
       </c>
@@ -14419,7 +14896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248">
         <v>95</v>
       </c>
@@ -14436,7 +14913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5">
       <c r="A249">
         <v>95</v>
       </c>
@@ -14453,7 +14930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5">
       <c r="A250">
         <v>95</v>
       </c>
@@ -14470,7 +14947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251">
         <v>95</v>
       </c>
@@ -14487,7 +14964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252">
         <v>95</v>
       </c>
@@ -14504,7 +14981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253">
         <v>95</v>
       </c>
@@ -14521,7 +14998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5">
       <c r="A254">
         <v>95</v>
       </c>
@@ -14538,7 +15015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5">
       <c r="A255">
         <v>95</v>
       </c>
@@ -14555,7 +15032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5">
       <c r="A256">
         <v>95</v>
       </c>
@@ -14572,7 +15049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257">
         <v>95</v>
       </c>
@@ -14589,7 +15066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258">
         <v>95</v>
       </c>
@@ -14606,7 +15083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259">
         <v>95</v>
       </c>
@@ -14623,7 +15100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260">
         <v>95</v>
       </c>
@@ -14640,7 +15117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261">
         <v>95</v>
       </c>
@@ -14657,7 +15134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262">
         <v>95</v>
       </c>
@@ -14674,7 +15151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
       <c r="A263">
         <v>95</v>
       </c>
@@ -14691,7 +15168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5">
       <c r="A264">
         <v>95</v>
       </c>
@@ -14708,7 +15185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265">
         <v>95</v>
       </c>
@@ -14725,7 +15202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5">
       <c r="A266">
         <v>95</v>
       </c>
@@ -14742,7 +15219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5">
       <c r="A267">
         <v>95</v>
       </c>
@@ -14759,7 +15236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268">
         <v>95</v>
       </c>
@@ -14776,7 +15253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="A269">
         <v>95</v>
       </c>
@@ -14793,7 +15270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="A270">
         <v>95</v>
       </c>
@@ -14810,7 +15287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
       <c r="A271">
         <v>95</v>
       </c>
@@ -14827,7 +15304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5">
       <c r="A272">
         <v>95</v>
       </c>
@@ -14844,7 +15321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273">
         <v>95</v>
       </c>
@@ -14861,7 +15338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274">
         <v>95</v>
       </c>
@@ -14878,7 +15355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
       <c r="A275">
         <v>95</v>
       </c>
@@ -14895,7 +15372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5">
       <c r="A276">
         <v>95</v>
       </c>
@@ -14912,7 +15389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277">
         <v>95</v>
       </c>
@@ -14929,7 +15406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278">
         <v>95</v>
       </c>
@@ -14946,7 +15423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279">
         <v>95</v>
       </c>
@@ -14963,7 +15440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280">
         <v>95</v>
       </c>
@@ -14980,7 +15457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5">
       <c r="A281">
         <v>95</v>
       </c>
@@ -14997,7 +15474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5">
       <c r="A282">
         <v>95</v>
       </c>
@@ -15014,7 +15491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283">
         <v>95</v>
       </c>
@@ -15031,7 +15508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284">
         <v>95</v>
       </c>
@@ -15048,7 +15525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5">
       <c r="A285">
         <v>95</v>
       </c>
@@ -15065,7 +15542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5">
       <c r="A286">
         <v>95</v>
       </c>
@@ -15082,7 +15559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287">
         <v>95</v>
       </c>
@@ -15099,7 +15576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288">
         <v>95</v>
       </c>
@@ -15116,7 +15593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289">
         <v>95</v>
       </c>
@@ -15133,7 +15610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290">
         <v>95</v>
       </c>
@@ -15150,7 +15627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291">
         <v>95</v>
       </c>
@@ -15167,7 +15644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292">
         <v>95</v>
       </c>
@@ -15184,7 +15661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293">
         <v>95</v>
       </c>
@@ -15201,7 +15678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5">
       <c r="A294">
         <v>95</v>
       </c>
@@ -15218,7 +15695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5">
       <c r="A295">
         <v>95</v>
       </c>
@@ -15235,7 +15712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5">
       <c r="A296">
         <v>95</v>
       </c>
@@ -15252,7 +15729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5">
       <c r="A297">
         <v>95</v>
       </c>
@@ -15269,7 +15746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5">
       <c r="A298">
         <v>95</v>
       </c>
@@ -15286,7 +15763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5">
       <c r="A299">
         <v>95</v>
       </c>
@@ -15303,7 +15780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5">
       <c r="A300">
         <v>95</v>
       </c>
@@ -15320,7 +15797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5">
       <c r="A301">
         <v>95</v>
       </c>
@@ -15337,7 +15814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5">
       <c r="A302">
         <v>95</v>
       </c>
@@ -15354,7 +15831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5">
       <c r="A303">
         <v>95</v>
       </c>
@@ -15371,7 +15848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5">
       <c r="A304">
         <v>95</v>
       </c>
@@ -15388,7 +15865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5">
       <c r="A305">
         <v>95</v>
       </c>
@@ -15405,7 +15882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5">
       <c r="A306">
         <v>95</v>
       </c>
@@ -15422,7 +15899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5">
       <c r="A307">
         <v>95</v>
       </c>
@@ -15439,7 +15916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5">
       <c r="A308">
         <v>95</v>
       </c>
@@ -15456,7 +15933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5">
       <c r="A309">
         <v>95</v>
       </c>
@@ -15473,7 +15950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5">
       <c r="A310">
         <v>95</v>
       </c>
@@ -15490,7 +15967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5">
       <c r="A311">
         <v>95</v>
       </c>
@@ -15507,7 +15984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5">
       <c r="A312">
         <v>95</v>
       </c>
@@ -15524,7 +16001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5">
       <c r="A313">
         <v>95</v>
       </c>
@@ -15541,7 +16018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5">
       <c r="A314">
         <v>95</v>
       </c>
@@ -15558,7 +16035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5">
       <c r="A315">
         <v>95</v>
       </c>
@@ -15575,7 +16052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5">
       <c r="A316">
         <v>95</v>
       </c>
@@ -15592,7 +16069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5">
       <c r="A317">
         <v>95</v>
       </c>
@@ -15609,7 +16086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5">
       <c r="A318">
         <v>95</v>
       </c>
@@ -15626,7 +16103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5">
       <c r="A319">
         <v>95</v>
       </c>
@@ -15643,7 +16120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5">
       <c r="A320">
         <v>95</v>
       </c>
@@ -15660,7 +16137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5">
       <c r="A321">
         <v>95</v>
       </c>
@@ -15677,7 +16154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5">
       <c r="A322">
         <v>95</v>
       </c>
@@ -15694,7 +16171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5">
       <c r="A323">
         <v>95</v>
       </c>
@@ -15711,7 +16188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5">
       <c r="A324">
         <v>95</v>
       </c>
@@ -15728,7 +16205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5">
       <c r="A325">
         <v>95</v>
       </c>
@@ -15745,7 +16222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5">
       <c r="A326">
         <v>95</v>
       </c>
@@ -15762,7 +16239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5">
       <c r="A327">
         <v>95</v>
       </c>
@@ -15779,7 +16256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5">
       <c r="A328">
         <v>95</v>
       </c>
@@ -15796,7 +16273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5">
       <c r="A329">
         <v>95</v>
       </c>
@@ -15813,7 +16290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5">
       <c r="A330">
         <v>95</v>
       </c>
@@ -15830,7 +16307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5">
       <c r="A331">
         <v>95</v>
       </c>
@@ -15847,7 +16324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5">
       <c r="A332">
         <v>95</v>
       </c>
@@ -15864,7 +16341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5">
       <c r="A333">
         <v>95</v>
       </c>
@@ -15881,7 +16358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5">
       <c r="A334">
         <v>95</v>
       </c>
@@ -15898,7 +16375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5">
       <c r="A335">
         <v>95</v>
       </c>
@@ -15915,7 +16392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5">
       <c r="A336">
         <v>95</v>
       </c>
@@ -15932,7 +16409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5">
       <c r="A337">
         <v>95</v>
       </c>
@@ -15949,7 +16426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5">
       <c r="A338">
         <v>95</v>
       </c>
@@ -15966,7 +16443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5">
       <c r="A339">
         <v>95</v>
       </c>
@@ -15983,7 +16460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5">
       <c r="A340">
         <v>95</v>
       </c>
@@ -16000,7 +16477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5">
       <c r="A341">
         <v>95</v>
       </c>
@@ -16017,7 +16494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5">
       <c r="A342">
         <v>95</v>
       </c>
@@ -16034,7 +16511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5">
       <c r="A343">
         <v>95</v>
       </c>
@@ -16051,7 +16528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5">
       <c r="A344">
         <v>95</v>
       </c>
@@ -16068,7 +16545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5">
       <c r="A345">
         <v>95</v>
       </c>
@@ -16085,7 +16562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5">
       <c r="A346">
         <v>95</v>
       </c>
@@ -16102,7 +16579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5">
       <c r="A347">
         <v>95</v>
       </c>
@@ -16119,7 +16596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5">
       <c r="A348">
         <v>95</v>
       </c>
@@ -16136,7 +16613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5">
       <c r="A349">
         <v>95</v>
       </c>
@@ -16153,7 +16630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5">
       <c r="A350">
         <v>95</v>
       </c>
@@ -16170,7 +16647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5">
       <c r="A351">
         <v>95</v>
       </c>
@@ -16187,7 +16664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5">
       <c r="A352">
         <v>95</v>
       </c>
@@ -16204,7 +16681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5">
       <c r="A353">
         <v>95</v>
       </c>
@@ -16221,7 +16698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5">
       <c r="A354">
         <v>95</v>
       </c>
@@ -16238,7 +16715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5">
       <c r="A355">
         <v>95</v>
       </c>
@@ -16255,7 +16732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5">
       <c r="A356">
         <v>95</v>
       </c>
@@ -16272,7 +16749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5">
       <c r="A357">
         <v>95</v>
       </c>
@@ -16289,7 +16766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5">
       <c r="A358">
         <v>95</v>
       </c>
@@ -16306,7 +16783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5">
       <c r="A359">
         <v>95</v>
       </c>
@@ -16323,7 +16800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5">
       <c r="A360">
         <v>95</v>
       </c>
@@ -16340,7 +16817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5">
       <c r="A361">
         <v>95</v>
       </c>
@@ -16357,7 +16834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5">
       <c r="A362">
         <v>95</v>
       </c>
@@ -16374,7 +16851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5">
       <c r="A363">
         <v>95</v>
       </c>
@@ -16391,7 +16868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5">
       <c r="A364">
         <v>95</v>
       </c>
@@ -16408,7 +16885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5">
       <c r="A365">
         <v>95</v>
       </c>
@@ -16425,7 +16902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5">
       <c r="A366">
         <v>95</v>
       </c>
@@ -16453,7 +16930,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16465,7 +16942,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
